--- a/data/outputs/数学期刊(上)_altmetric/42.BIT Numerical Mathematics.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/42.BIT Numerical Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -645,6 +650,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -760,6 +768,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -873,6 +884,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -986,6 +1000,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1099,6 +1116,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1212,6 +1232,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1325,6 +1348,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1438,6 +1464,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1553,6 +1582,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1666,6 +1698,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1779,6 +1814,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1892,6 +1930,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2005,6 +2046,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2118,6 +2162,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2231,6 +2278,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2344,6 +2394,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2459,6 +2512,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2572,6 +2628,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2683,6 +2742,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2796,6 +2858,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2907,6 +2972,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3018,6 +3086,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3133,6 +3204,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3248,6 +3322,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3363,6 +3440,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3480,6 +3560,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3595,6 +3678,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3825,6 +3914,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3940,6 +4032,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4055,6 +4150,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4168,6 +4266,9 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4283,6 +4384,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
